--- a/PORTO_ALEGRE.xlsx
+++ b/PORTO_ALEGRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B92804BF-17D0-46CB-9E0A-C541D78896A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61AB286E-286D-4E0E-89DE-5D54F433614D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,20 +23,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2435,7 +2422,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{169BBDFE-0719-4390-BC2D-34E59FB875C0}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FE6DA7E5-A740-45E3-9B51-265902F6A432}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2465,10 +2452,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AB5224-A22E-4D8C-A496-1D55784D90AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A036BC-1AE5-4FF9-B80F-1354CA1EAF7B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2493,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6995DB6C-994B-48EC-B8B7-3243E097918B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08DCB42-A619-43D2-A39C-604E8CE38C70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2556,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9298AC5-7173-4EE6-9573-E13586EFA278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E472B15B-F101-4A75-A943-0307B3F34E38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2575,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10777874-361A-5E44-ABFB-1EA72B837D5F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811F197A-F909-2596-4607-DBF6DE062ABE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2637,7 +2624,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56425ECC-89AD-084F-6B8C-60B8375BDDEA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D43E39-444C-5EC0-2A60-7328E1814723}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2656,7 +2643,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4460E867-F327-DD9A-D656-5A0261B7E4A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32FF775-23AE-BB00-D658-FBA4C945CA2D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2687,7 +2674,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B718C1BE-B23A-B44A-F5AC-E0C3C7764DF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89EC777-3C6A-0667-69B8-0EDB8530197B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2718,7 +2705,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C62143-68D9-5F90-CEFF-66DC4D87CEE4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE7EDEC-8AA8-0F6D-4A19-E543CB2D6270}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2761,7 +2748,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD1CC88-9B10-4EF5-A486-1CDEFA6C7527}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C0B0C5-A97B-43BA-81B6-7E8CDC6F0A79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2786,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AD9731-657D-4E1F-87F2-4BD7693E3B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3278ABC-D633-4412-8577-ABD5183AA980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2829,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CDCA29-832F-4078-82D4-D924F39F4878}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E7D058-D34C-4340-ACB6-57E245330723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671071ED-A2C0-432E-BB4D-484522F6619B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76A6918-263F-4D7B-B19F-CBFECCD3FE75}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10910,7 +10897,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11458,16 +11445,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="89" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17721,8 +17708,9 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17828,8 +17816,7 @@
         <v>687</v>
       </c>
       <c r="E1" s="35">
-        <f>SUM(B2:B157)</f>
-        <v>2663</v>
+        <v>15072</v>
       </c>
       <c r="F1" s="36">
         <v>1</v>

--- a/PORTO_ALEGRE.xlsx
+++ b/PORTO_ALEGRE.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61AB286E-286D-4E0E-89DE-5D54F433614D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F9EB60-B921-49D4-A7EF-95780820508C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="10" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="BENS-INTERINOS" sheetId="3" r:id="rId4"/>
@@ -22,13 +22,14 @@
     <sheet name="TCA" sheetId="6" r:id="rId7"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="DGC" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="694">
   <si>
     <t>COMARCA</t>
   </si>
@@ -2117,6 +2118,24 @@
   <si>
     <t>%</t>
   </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-VIG</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
+  </si>
+  <si>
+    <t>MAOBRAS/MATIC</t>
+  </si>
+  <si>
+    <t>Atraso no ateste.</t>
+  </si>
 </sst>
 </file>
 
@@ -2126,7 +2145,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2179,6 +2198,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2193,7 +2225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2240,6 +2272,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
         <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -2325,9 +2363,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2417,12 +2455,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{FE6DA7E5-A740-45E3-9B51-265902F6A432}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{81D96248-15D9-48A0-AB0B-9B43C024A388}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2452,10 +2494,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A036BC-1AE5-4FF9-B80F-1354CA1EAF7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F591530-18C1-46F1-9369-51DFA2859EEC}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2535,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08DCB42-A619-43D2-A39C-604E8CE38C70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7118073-C288-46EC-B73B-CC2FEAF1A890}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2598,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E472B15B-F101-4A75-A943-0307B3F34E38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EAB2FC-26DA-4CDC-B1D2-42AD8270EA88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2617,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811F197A-F909-2596-4607-DBF6DE062ABE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DE34F-88C8-2023-FEF2-C0EFC79B7E48}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2624,7 +2666,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D43E39-444C-5EC0-2A60-7328E1814723}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AF9017-9BC4-F4D6-A606-E4D30336718F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2643,7 +2685,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32FF775-23AE-BB00-D658-FBA4C945CA2D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9D5FAB-17F0-197C-413C-3410BE5E42A6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2674,7 +2716,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89EC777-3C6A-0667-69B8-0EDB8530197B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531551CC-11AE-B177-13AC-F21A6ED925E7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2705,7 +2747,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE7EDEC-8AA8-0F6D-4A19-E543CB2D6270}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0C73EE-31D6-A042-0FF9-EAB14A300DD3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2748,7 +2790,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C0B0C5-A97B-43BA-81B6-7E8CDC6F0A79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57E4F6C-9CA7-4DDD-B96B-C8EF8E1D8CBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2828,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3278ABC-D633-4412-8577-ABD5183AA980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F637031A-71FC-4791-8001-883EE25B6A47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2871,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E7D058-D34C-4340-ACB6-57E245330723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753D918A-C42A-4752-9476-2D0FF800E07E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3142,7 +3184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76A6918-263F-4D7B-B19F-CBFECCD3FE75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D333A4-476F-45B6-9F62-5CC7BAE1266B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3154,102 +3196,153 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="40"/>
-    <col min="6" max="6" width="2" style="40" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="40"/>
+    <col min="1" max="5" width="12.5703125" style="42"/>
+    <col min="6" max="6" width="2" style="42" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="42" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="39"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="39"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="39"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="39"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="39"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="39"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="39"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="39"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="39"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="39"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="39"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="39"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="39"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="39"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="39"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="39"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="39"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="39"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
+      <c r="F21" s="41"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
+      <c r="F22" s="41"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="39"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="39"/>
+      <c r="F24" s="41"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="39"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="39"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="39"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="39"/>
+      <c r="F28" s="41"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="39"/>
+      <c r="F29" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>690</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/PORTO_ALEGRE.xlsx
+++ b/PORTO_ALEGRE.xlsx
@@ -8,28 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F9EB60-B921-49D4-A7EF-95780820508C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E4E15A-5D7F-4E15-AF87-86986BE6A52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="10" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="9" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="BENS-INTERINOS" sheetId="3" r:id="rId4"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="4" r:id="rId5"/>
     <sheet name="CPIP" sheetId="5" r:id="rId6"/>
     <sheet name="TCA" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
-    <sheet name="DGC" sheetId="9" r:id="rId10"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
+    <sheet name="DGC" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="692">
   <si>
     <t>COMARCA</t>
   </si>
@@ -2111,12 +2110,6 @@
   </si>
   <si>
     <t>Etapa DARQ (recolhimento)</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -2365,7 +2358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2440,21 +2433,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2464,7 +2442,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{81D96248-15D9-48A0-AB0B-9B43C024A388}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{ABF54B43-F4E3-4472-B794-F5ED2DFDBFBA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2494,10 +2472,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F591530-18C1-46F1-9369-51DFA2859EEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177BCF01-0391-44AA-ABDD-3BB8EC1F796E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2513,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7118073-C288-46EC-B73B-CC2FEAF1A890}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AEA59F-F1ED-45D6-AAE5-CEEAB679169D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2598,7 +2576,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EAB2FC-26DA-4CDC-B1D2-42AD8270EA88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB21E0E-04F6-46F6-9307-2737F6424167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2595,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DE34F-88C8-2023-FEF2-C0EFC79B7E48}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7B8475-AC24-E017-00B8-1B9D9F0E10C7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2666,7 +2644,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AF9017-9BC4-F4D6-A606-E4D30336718F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D4E0AE-C777-FD76-FEF3-13E301486113}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2685,7 +2663,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9D5FAB-17F0-197C-413C-3410BE5E42A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD85E36D-B0E4-D308-A524-CA5D9CCF717C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2716,7 +2694,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531551CC-11AE-B177-13AC-F21A6ED925E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78093EF-A869-CD13-EAF5-ACA0C8F6993F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2747,7 +2725,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0C73EE-31D6-A042-0FF9-EAB14A300DD3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C13F63C-F789-4FBE-2D04-03D0999E7160}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2790,7 +2768,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57E4F6C-9CA7-4DDD-B96B-C8EF8E1D8CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA144FEF-5707-484B-8250-F9D42CAB5138}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2806,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F637031A-71FC-4791-8001-883EE25B6A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A3CF5F-B1D7-46EB-A543-CE2EEF00166F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2849,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753D918A-C42A-4752-9476-2D0FF800E07E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14726C0-0032-49EF-AC03-7B073424FC50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D333A4-476F-45B6-9F62-5CC7BAE1266B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF4CA4B-6EB4-4AB2-BF8F-8748106E9671}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3196,153 +3174,102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="42"/>
-    <col min="6" max="6" width="2" style="42" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="42" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="42"/>
+    <col min="1" max="5" width="12.5703125" style="37"/>
+    <col min="6" max="6" width="2" style="37" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="41"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="41"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="41"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="41"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="41"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="41"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="41"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="41"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="41"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="41"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="41"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="41"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="41"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="41"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="41"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="41"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="41"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="41"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="41"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="41"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="41"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="41"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="41"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="41"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="41"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="41"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="41"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="41"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="41"/>
+      <c r="F29" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="88.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>688</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>690</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>692</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>693</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -17885,45 +17812,48 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="34" t="s">
         <v>686</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>687</v>
       </c>
-      <c r="E1" s="35">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" s="38">
-        <v>2663</v>
-      </c>
-      <c r="C2" s="36">
-        <v>0.17610104483533931</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>688</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/PORTO_ALEGRE.xlsx
+++ b/PORTO_ALEGRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E4E15A-5D7F-4E15-AF87-86986BE6A52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC52B51-E75B-4458-9329-85BA2E34D644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2442,7 +2442,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{ABF54B43-F4E3-4472-B794-F5ED2DFDBFBA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B96BDDF6-ED1B-42B1-B890-C862D3C80591}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2472,10 +2472,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177BCF01-0391-44AA-ABDD-3BB8EC1F796E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FA59F0-5CBD-42C7-89EC-BF0DE8DB19C3}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AEA59F-F1ED-45D6-AAE5-CEEAB679169D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29857D6-C067-4732-9B77-C65FC8269C9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2576,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB21E0E-04F6-46F6-9307-2737F6424167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71451DF7-58C6-42F1-9C49-4AAB0DF5744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2595,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7B8475-AC24-E017-00B8-1B9D9F0E10C7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FE79F3-E6AC-9DD7-1207-E792840289BD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2644,7 +2644,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D4E0AE-C777-FD76-FEF3-13E301486113}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D66E1B-2907-0773-7FF4-B70BDC110B77}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2663,7 +2663,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD85E36D-B0E4-D308-A524-CA5D9CCF717C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E6EFE2-002A-9762-748E-2F7FF67645E6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2694,7 +2694,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78093EF-A869-CD13-EAF5-ACA0C8F6993F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F231AD54-2981-A795-BCB8-6D31967E3067}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2725,7 +2725,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C13F63C-F789-4FBE-2D04-03D0999E7160}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D23BB0D-17F9-695F-9BAB-E7AA4ACE5F79}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2768,7 +2768,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA144FEF-5707-484B-8250-F9D42CAB5138}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDEE3452-D9C0-4F1D-BA59-4B9FADE4C609}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2806,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A3CF5F-B1D7-46EB-A543-CE2EEF00166F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E655DFCD-2DE7-4DDE-9410-391886DCA7F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,50 +2831,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14726C0-0032-49EF-AC03-7B073424FC50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3162,7 +3118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF4CA4B-6EB4-4AB2-BF8F-8748106E9671}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4066C2C-BBDF-4342-808E-348928EE5BFD}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
